--- a/assets/rapporto cilindri viste.xlsx
+++ b/assets/rapporto cilindri viste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Documents\GitHub\Geometric-Aware-Camera-Pose-Estimation\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C017A8F2-BDCF-4C97-AA02-6D4219080944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDAF670-283D-4FE9-B8C4-92472CED7469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C36F357A-DAD5-41FF-9C2E-E2ABE59EE17D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -112,49 +112,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1331,7 +1289,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1620,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,27 +1962,27 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <f>CEILING(B$1/(2*$A14-3),1)</f>
+        <f t="shared" ref="B14:G23" si="10">CEILING(B$1/(2*$A14-3),1)</f>
         <v>0</v>
       </c>
       <c r="C14">
-        <f>CEILING(C$1/(2*$A14-3),1)</f>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="D14">
-        <f>CEILING(D$1/(2*$A14-3),1)</f>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
       <c r="E14">
-        <f>CEILING(E$1/(2*$A14-3),1)</f>
+        <f t="shared" si="10"/>
         <v>-3</v>
       </c>
       <c r="F14">
-        <f>CEILING(F$1/(2*$A14-3),1)</f>
+        <f t="shared" si="10"/>
         <v>-4</v>
       </c>
       <c r="G14">
-        <f>CEILING(G$1/(2*$A14-3),1)</f>
+        <f t="shared" si="10"/>
         <v>-5</v>
       </c>
     </row>
@@ -2033,27 +1991,27 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <f>CEILING(B$1/(2*$A15-3),1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C15">
-        <f>CEILING(C$1/(2*$A15-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f>CEILING(D$1/(2*$A15-3),1)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E15">
-        <f>CEILING(E$1/(2*$A15-3),1)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="F15">
-        <f>CEILING(F$1/(2*$A15-3),1)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="G15">
-        <f>CEILING(G$1/(2*$A15-3),1)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -2062,27 +2020,27 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <f>CEILING(B$1/(2*$A16-3),1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C16">
-        <f>CEILING(C$1/(2*$A16-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D16">
-        <f>CEILING(D$1/(2*$A16-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E16">
-        <f>CEILING(E$1/(2*$A16-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F16">
-        <f>CEILING(F$1/(2*$A16-3),1)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G16">
-        <f>CEILING(G$1/(2*$A16-3),1)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -2091,27 +2049,27 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <f>CEILING(B$1/(2*$A17-3),1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C17">
-        <f>CEILING(C$1/(2*$A17-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D17">
-        <f>CEILING(D$1/(2*$A17-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f>CEILING(E$1/(2*$A17-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <f>CEILING(F$1/(2*$A17-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G17">
-        <f>CEILING(G$1/(2*$A17-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -2120,27 +2078,27 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <f>CEILING(B$1/(2*$A18-3),1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C18">
-        <f>CEILING(C$1/(2*$A18-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D18">
-        <f>CEILING(D$1/(2*$A18-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f>CEILING(E$1/(2*$A18-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F18">
-        <f>CEILING(F$1/(2*$A18-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G18">
-        <f>CEILING(G$1/(2*$A18-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -2149,27 +2107,27 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <f>CEILING(B$1/(2*$A19-3),1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C19">
-        <f>CEILING(C$1/(2*$A19-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D19">
-        <f>CEILING(D$1/(2*$A19-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E19">
-        <f>CEILING(E$1/(2*$A19-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F19">
-        <f>CEILING(F$1/(2*$A19-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G19">
-        <f>CEILING(G$1/(2*$A19-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -2178,27 +2136,27 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <f>CEILING(B$1/(2*$A20-3),1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C20">
-        <f>CEILING(C$1/(2*$A20-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D20">
-        <f>CEILING(D$1/(2*$A20-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E20">
-        <f>CEILING(E$1/(2*$A20-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F20">
-        <f>CEILING(F$1/(2*$A20-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G20">
-        <f>CEILING(G$1/(2*$A20-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -2207,27 +2165,27 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <f>CEILING(B$1/(2*$A21-3),1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C21">
-        <f>CEILING(C$1/(2*$A21-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D21">
-        <f>CEILING(D$1/(2*$A21-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E21">
-        <f>CEILING(E$1/(2*$A21-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f>CEILING(F$1/(2*$A21-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G21">
-        <f>CEILING(G$1/(2*$A21-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -2236,27 +2194,27 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <f>CEILING(B$1/(2*$A22-3),1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C22">
-        <f>CEILING(C$1/(2*$A22-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D22">
-        <f>CEILING(D$1/(2*$A22-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f>CEILING(E$1/(2*$A22-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F22">
-        <f>CEILING(F$1/(2*$A22-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G22">
-        <f>CEILING(G$1/(2*$A22-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -2265,27 +2223,27 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <f>CEILING(B$1/(2*$A23-3),1)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>CEILING(C$1/(2*$A23-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D23">
-        <f>CEILING(D$1/(2*$A23-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E23">
-        <f>CEILING(E$1/(2*$A23-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F23">
-        <f>CEILING(F$1/(2*$A23-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G23">
-        <f>CEILING(G$1/(2*$A23-3),1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>

--- a/assets/rapporto cilindri viste.xlsx
+++ b/assets/rapporto cilindri viste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Documents\GitHub\Geometric-Aware-Camera-Pose-Estimation\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enricobarbieri/Documents/GitHub/Geometric-Aware-Camera-Pose-Estimation/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDAF670-283D-4FE9-B8C4-92472CED7469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A1E74D-4912-2442-81CF-6D811E4E95F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C36F357A-DAD5-41FF-9C2E-E2ABE59EE17D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="3" xr2:uid="{C36F357A-DAD5-41FF-9C2E-E2ABE59EE17D}"/>
   </bookViews>
   <sheets>
     <sheet name="Equazioni" sheetId="1" r:id="rId1"/>
@@ -456,19 +456,19 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-    <col min="9" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -548,7 +548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -593,7 +593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -638,7 +638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -683,7 +683,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -728,7 +728,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -773,7 +773,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -818,7 +818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -863,7 +863,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -908,7 +908,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -966,9 +966,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1289,12 +1289,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -1315,293 +1315,293 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" cm="1">
-        <f t="array" ref="B2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt; Parametri!B2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
+        <f t="array" ref="B2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt;= Parametri!B2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
         <v>2</v>
       </c>
       <c r="C2" cm="1">
-        <f t="array" ref="C2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt; Parametri!C2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
+        <f t="array" ref="C2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt;= Parametri!C2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt;= Parametri!D2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
         <v>3</v>
       </c>
-      <c r="D2" cm="1">
-        <f t="array" ref="D2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt; Parametri!D2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt;= Parametri!E2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
         <v>3</v>
       </c>
-      <c r="E2" cm="1">
-        <f t="array" ref="E2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt; Parametri!E2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt;= Parametri!F2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
         <v>4</v>
       </c>
-      <c r="F2" cm="1">
-        <f t="array" ref="F2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt; Parametri!F2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt;= Parametri!G2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
         <v>4</v>
       </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!2:2 &gt; Parametri!G2, Equazioni!2:2)), Equazioni!2:2, 0))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" cm="1">
-        <f t="array" ref="B3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt; Parametri!B3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
+        <f t="array" ref="B3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt;= Parametri!B3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
         <v>2</v>
       </c>
       <c r="C3" cm="1">
-        <f t="array" ref="C3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt; Parametri!C3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
+        <f t="array" ref="C3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt;= Parametri!C3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
         <v>2</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" ref="D3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt; Parametri!D3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
+        <f t="array" ref="D3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt;= Parametri!D3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="E3" cm="1">
+        <f t="array" ref="E3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt;= Parametri!E3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
         <v>3</v>
       </c>
-      <c r="E3" cm="1">
-        <f t="array" ref="E3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt; Parametri!E3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
+      <c r="F3" cm="1">
+        <f t="array" ref="F3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt;= Parametri!F3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
         <v>3</v>
       </c>
-      <c r="F3" cm="1">
-        <f t="array" ref="F3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt; Parametri!F3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
+      <c r="G3" cm="1">
+        <f t="array" ref="G3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt;= Parametri!G3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
         <v>3</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!3:3 &gt; Parametri!G3, Equazioni!3:3)), Equazioni!3:3, 0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" cm="1">
-        <f t="array" ref="B4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt; Parametri!B4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
+        <f t="array" ref="B4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt;= Parametri!B4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
         <v>2</v>
       </c>
       <c r="C4" cm="1">
-        <f t="array" ref="C4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt; Parametri!C4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
+        <f t="array" ref="C4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt;= Parametri!C4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
         <v>2</v>
       </c>
       <c r="D4" cm="1">
-        <f t="array" ref="D4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt; Parametri!D4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
+        <f t="array" ref="D4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt;= Parametri!D4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
         <v>2</v>
       </c>
       <c r="E4" cm="1">
-        <f t="array" ref="E4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt; Parametri!E4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
+        <f t="array" ref="E4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt;= Parametri!E4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="F4" cm="1">
+        <f t="array" ref="F4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt;= Parametri!F4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
         <v>3</v>
       </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt; Parametri!F4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
+      <c r="G4" cm="1">
+        <f t="array" ref="G4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt;= Parametri!G4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
         <v>3</v>
       </c>
-      <c r="G4" cm="1">
-        <f t="array" ref="G4">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!4:4 &gt; Parametri!G4, Equazioni!4:4)), Equazioni!4:4, 0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" cm="1">
-        <f t="array" ref="B5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt; Parametri!B5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
+        <f t="array" ref="B5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt;= Parametri!B5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
         <v>2</v>
       </c>
       <c r="C5" cm="1">
-        <f t="array" ref="C5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt; Parametri!C5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
+        <f t="array" ref="C5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt;= Parametri!C5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
         <v>2</v>
       </c>
       <c r="D5" cm="1">
-        <f t="array" ref="D5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt; Parametri!D5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
+        <f t="array" ref="D5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt;= Parametri!D5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
         <v>2</v>
       </c>
       <c r="E5" cm="1">
-        <f t="array" ref="E5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt; Parametri!E5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
+        <f t="array" ref="E5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt;= Parametri!E5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
         <v>2</v>
       </c>
       <c r="F5" cm="1">
-        <f t="array" ref="F5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt; Parametri!F5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
+        <f t="array" ref="F5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt;= Parametri!F5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
+        <v>2</v>
+      </c>
+      <c r="G5" cm="1">
+        <f t="array" ref="G5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt;= Parametri!G5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
         <v>3</v>
       </c>
-      <c r="G5" cm="1">
-        <f t="array" ref="G5">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!5:5 &gt; Parametri!G5, Equazioni!5:5)), Equazioni!5:5, 0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" cm="1">
-        <f t="array" ref="B6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt; Parametri!B6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
+        <f t="array" ref="B6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt;= Parametri!B6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
         <v>2</v>
       </c>
       <c r="C6" cm="1">
-        <f t="array" ref="C6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt; Parametri!C6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
+        <f t="array" ref="C6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt;= Parametri!C6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
         <v>2</v>
       </c>
       <c r="D6" cm="1">
-        <f t="array" ref="D6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt; Parametri!D6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
+        <f t="array" ref="D6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt;= Parametri!D6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
         <v>2</v>
       </c>
       <c r="E6" cm="1">
-        <f t="array" ref="E6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt; Parametri!E6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
+        <f t="array" ref="E6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt;= Parametri!E6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
         <v>2</v>
       </c>
       <c r="F6" cm="1">
-        <f t="array" ref="F6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt; Parametri!F6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
+        <f t="array" ref="F6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt;= Parametri!F6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
         <v>2</v>
       </c>
       <c r="G6" cm="1">
-        <f t="array" ref="G6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt; Parametri!G6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="array" ref="G6">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!6:6 &gt;= Parametri!G6, Equazioni!6:6)), Equazioni!6:6, 0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" cm="1">
-        <f t="array" ref="B7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt; Parametri!B7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
+        <f t="array" ref="B7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt;= Parametri!B7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
         <v>2</v>
       </c>
       <c r="C7" cm="1">
-        <f t="array" ref="C7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt; Parametri!C7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
+        <f t="array" ref="C7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt;= Parametri!C7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
         <v>2</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt; Parametri!D7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
+        <f t="array" ref="D7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt;= Parametri!D7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
         <v>2</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt; Parametri!E7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
+        <f t="array" ref="E7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt;= Parametri!E7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
         <v>2</v>
       </c>
       <c r="F7" cm="1">
-        <f t="array" ref="F7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt; Parametri!F7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
+        <f t="array" ref="F7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt;= Parametri!F7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
         <v>2</v>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt; Parametri!G7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="array" ref="G7">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!7:7 &gt;= Parametri!G7, Equazioni!7:7)), Equazioni!7:7, 0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" cm="1">
-        <f t="array" ref="B8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt; Parametri!B8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
+        <f t="array" ref="B8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt;= Parametri!B8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
         <v>2</v>
       </c>
       <c r="C8" cm="1">
-        <f t="array" ref="C8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt; Parametri!C8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
+        <f t="array" ref="C8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt;= Parametri!C8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
         <v>2</v>
       </c>
       <c r="D8" cm="1">
-        <f t="array" ref="D8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt; Parametri!D8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
+        <f t="array" ref="D8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt;= Parametri!D8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
         <v>2</v>
       </c>
       <c r="E8" cm="1">
-        <f t="array" ref="E8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt; Parametri!E8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
+        <f t="array" ref="E8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt;= Parametri!E8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
         <v>2</v>
       </c>
       <c r="F8" cm="1">
-        <f t="array" ref="F8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt; Parametri!F8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
+        <f t="array" ref="F8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt;= Parametri!F8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
         <v>2</v>
       </c>
       <c r="G8" cm="1">
-        <f t="array" ref="G8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt; Parametri!G8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="array" ref="G8">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!8:8 &gt;= Parametri!G8, Equazioni!8:8)), Equazioni!8:8, 0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" cm="1">
-        <f t="array" ref="B9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt; Parametri!B9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
+        <f t="array" ref="B9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt;= Parametri!B9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
         <v>2</v>
       </c>
       <c r="C9" cm="1">
-        <f t="array" ref="C9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt; Parametri!C9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
+        <f t="array" ref="C9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt;= Parametri!C9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
         <v>2</v>
       </c>
       <c r="D9" cm="1">
-        <f t="array" ref="D9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt; Parametri!D9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
+        <f t="array" ref="D9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt;= Parametri!D9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
         <v>2</v>
       </c>
       <c r="E9" cm="1">
-        <f t="array" ref="E9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt; Parametri!E9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
+        <f t="array" ref="E9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt;= Parametri!E9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
         <v>2</v>
       </c>
       <c r="F9" cm="1">
-        <f t="array" ref="F9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt; Parametri!F9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
+        <f t="array" ref="F9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt;= Parametri!F9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
         <v>2</v>
       </c>
       <c r="G9" cm="1">
-        <f t="array" ref="G9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt; Parametri!G9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="array" ref="G9">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!9:9 &gt;= Parametri!G9, Equazioni!9:9)), Equazioni!9:9, 0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" cm="1">
-        <f t="array" ref="B10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt; Parametri!B10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
+        <f t="array" ref="B10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt;= Parametri!B10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
         <v>2</v>
       </c>
       <c r="C10" cm="1">
-        <f t="array" ref="C10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt; Parametri!C10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
+        <f t="array" ref="C10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt;= Parametri!C10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
         <v>2</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" ref="D10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt; Parametri!D10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
+        <f t="array" ref="D10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt;= Parametri!D10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
         <v>2</v>
       </c>
       <c r="E10" cm="1">
-        <f t="array" ref="E10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt; Parametri!E10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
+        <f t="array" ref="E10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt;= Parametri!E10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
         <v>2</v>
       </c>
       <c r="F10" cm="1">
-        <f t="array" ref="F10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt; Parametri!F10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
+        <f t="array" ref="F10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt;= Parametri!F10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
         <v>2</v>
       </c>
       <c r="G10" cm="1">
-        <f t="array" ref="G10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt; Parametri!G10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="array" ref="G10">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!10:10 &gt;= Parametri!G10, Equazioni!10:10)), Equazioni!10:10, 0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" cm="1">
-        <f t="array" ref="B11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt; Parametri!B11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
+        <f t="array" ref="B11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt;= Parametri!B11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
         <v>2</v>
       </c>
       <c r="C11" cm="1">
-        <f t="array" ref="C11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt; Parametri!C11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
+        <f t="array" ref="C11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt;= Parametri!C11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
         <v>2</v>
       </c>
       <c r="D11" cm="1">
-        <f t="array" ref="D11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt; Parametri!D11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
+        <f t="array" ref="D11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt;= Parametri!D11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
         <v>2</v>
       </c>
       <c r="E11" cm="1">
-        <f t="array" ref="E11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt; Parametri!E11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
+        <f t="array" ref="E11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt;= Parametri!E11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
         <v>2</v>
       </c>
       <c r="F11" cm="1">
-        <f t="array" ref="F11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt; Parametri!F11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
+        <f t="array" ref="F11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt;= Parametri!F11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
         <v>2</v>
       </c>
       <c r="G11" cm="1">
-        <f t="array" ref="G11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt; Parametri!G11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
+        <f t="array" ref="G11">INDEX(Equazioni!$1:$1, MATCH(MIN(IF(Equazioni!11:11 &gt;= Parametri!G11, Equazioni!11:11)), Equazioni!11:11, 0))</f>
         <v>2</v>
       </c>
     </row>
@@ -1620,12 +1620,12 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A13" sqref="A13:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>7</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>9</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>10</v>
       </c>
